--- a/Jovany Molina Vieyra/CU_JovanyMolina_070223.xlsx
+++ b/Jovany Molina Vieyra/CU_JovanyMolina_070223.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Efren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD23893-51F5-4D4B-ABAD-73318601A2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A1CEA2-A84F-4E29-92BB-486FB2050ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU_P01" sheetId="1" r:id="rId1"/>
@@ -767,7 +767,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,12 +810,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -838,27 +832,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1172,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1190,7 +1166,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1281,15 +1257,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1329,23 +1296,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,8 +1352,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>740375</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68508</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>303832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1436,8 +1402,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>188144</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>96988</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>96989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1486,7 +1452,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>115173</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114389</xdr:rowOff>
+      <xdr:rowOff>35948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1871,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B20:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,37 +1882,37 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
       <c r="G22" s="28"/>
       <c r="H22" s="29"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" spans="2:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
       <c r="G23" s="28"/>
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="2:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
       <c r="G24" s="28"/>
       <c r="H24" s="29"/>
       <c r="I24" s="30"/>
@@ -1989,12 +1955,12 @@
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="2:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
       <c r="G28" s="28"/>
       <c r="H28" s="29"/>
       <c r="I28" s="30"/>
@@ -2040,12 +2006,12 @@
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="2:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
       <c r="G33" s="31"/>
       <c r="H33" s="32"/>
       <c r="I33" s="33"/>
@@ -2096,11 +2062,11 @@
       <c r="B40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
     </row>
     <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
@@ -2109,10 +2075,10 @@
       <c r="C41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="62" t="s">
+      <c r="H41" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="62"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
@@ -2128,7 +2094,7 @@
       <c r="D43" s="41"/>
       <c r="E43" s="42"/>
     </row>
-    <row r="44" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
         <v>32</v>
       </c>
@@ -2167,7 +2133,7 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,24 +2175,24 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="29"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" s="68" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="2:9" s="64" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
       <c r="G5" s="28"/>
       <c r="H5" s="29"/>
       <c r="I5" s="30"/>
@@ -2235,11 +2201,11 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
       <c r="G6" s="28"/>
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
@@ -2281,13 +2247,13 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+    <row r="10" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
       <c r="G10" s="28"/>
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
@@ -2333,12 +2299,12 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="2:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
@@ -2389,11 +2355,11 @@
       <c r="B22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
@@ -2417,8 +2383,8 @@
       <c r="D25" s="41"/>
       <c r="E25" s="42"/>
     </row>
-    <row r="26" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="63" t="s">
+    <row r="26" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="60" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="22"/>
@@ -2433,11 +2399,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="C3:E3"/>
@@ -2448,6 +2409,11 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
